--- a/time.xlsx
+++ b/time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3520E754-A4EF-4BED-93F7-EC69EE0BCE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA5DC13-172E-4821-911A-1FBC2A437173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D242549C-D3B9-4851-9A21-BF61DBC7D614}"/>
   </bookViews>
@@ -34,12 +34,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Размер</t>
   </si>
   <si>
     <t>Время</t>
+  </si>
+  <si>
+    <t>Возрастающая</t>
+  </si>
+  <si>
+    <t>Убывающая</t>
+  </si>
+  <si>
+    <t>Случайная</t>
+  </si>
+  <si>
+    <t>Домик</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>qs</t>
+  </si>
+  <si>
+    <t>qsort(standart)</t>
+  </si>
+  <si>
+    <t>Задание 2</t>
+  </si>
+  <si>
+    <t>0,006(для 5к элементов)</t>
   </si>
 </sst>
 </file>
@@ -1325,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6196B3-48B1-4472-9B2D-A823CEB54857}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1389,6 +1416,76 @@
         <v>400.32600000000002</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>0.51</v>
+      </c>
+      <c r="C20">
+        <v>1E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C21">
+        <v>2E-3</v>
+      </c>
+      <c r="D21">
+        <v>2E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
